--- a/Data/Master.xlsx
+++ b/Data/Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAC8F4E-F8F2-4EDC-B5D4-F6E3820F483D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCF0BBA-118A-4C71-8CEE-A79EB9F4FE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -985,9 +985,11 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1135,7 +1137,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1355,11 +1357,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7265625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1372,9 +1374,10 @@
     <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -1432,9 +1435,8 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
-    </row>
-    <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -1458,7 +1460,7 @@
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>87</v>
       </c>
@@ -1482,7 +1484,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>88</v>
       </c>
@@ -1506,7 +1508,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>89</v>
       </c>
@@ -1530,7 +1532,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>90</v>
       </c>
@@ -1554,7 +1556,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>91</v>
       </c>
@@ -1578,7 +1580,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -1602,7 +1604,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>93</v>
       </c>
@@ -1626,7 +1628,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>94</v>
       </c>
@@ -1650,7 +1652,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>95</v>
       </c>
@@ -1674,7 +1676,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>96</v>
       </c>
@@ -1698,7 +1700,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>97</v>
       </c>
@@ -1732,7 +1734,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>98</v>
       </c>
@@ -1756,7 +1758,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -3634,7 +3636,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="12"/>
-      <c r="G91" s="16"/>
+      <c r="G91" s="17"/>
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
       <c r="J91" s="16"/>
@@ -3712,7 +3714,7 @@
       <c r="J94" s="16"/>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>133</v>
       </c>
@@ -3729,9 +3731,7 @@
       <c r="E95" s="4">
         <v>94</v>
       </c>
-      <c r="F95" s="12" t="s">
-        <v>180</v>
-      </c>
+      <c r="F95" s="12"/>
       <c r="G95" s="16" t="s">
         <v>202</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>199</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>200</v>
       </c>
@@ -3799,7 +3799,9 @@
       <c r="E97" s="4">
         <v>96</v>
       </c>
-      <c r="F97" s="12"/>
+      <c r="F97" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="G97" s="16" t="s">
         <v>202</v>
       </c>

--- a/Data/Master.xlsx
+++ b/Data/Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCF0BBA-118A-4C71-8CEE-A79EB9F4FE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83412D2C-5877-46A6-A30C-E84C62C75AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="304">
   <si>
     <t>RUT</t>
   </si>
@@ -1360,8 +1360,8 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7265625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1717,9 @@
       <c r="E14" s="4">
         <v>13</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="G14" s="16" t="s">
         <v>197</v>
       </c>
@@ -1919,7 +1921,9 @@
       <c r="E22" s="4">
         <v>21</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="G22" s="16" t="s">
         <v>197</v>
       </c>
@@ -2193,7 +2197,9 @@
       <c r="E33" s="4">
         <v>32</v>
       </c>
-      <c r="F33" s="12"/>
+      <c r="F33" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="G33" s="16" t="s">
         <v>202</v>
       </c>
@@ -2323,7 +2329,9 @@
       <c r="E38" s="4">
         <v>37</v>
       </c>
-      <c r="F38" s="12"/>
+      <c r="F38" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="G38" s="16" t="s">
         <v>204</v>
       </c>
@@ -2621,7 +2629,9 @@
       <c r="E50" s="4">
         <v>49</v>
       </c>
-      <c r="F50" s="12"/>
+      <c r="F50" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="G50" s="16" t="s">
         <v>197</v>
       </c>
@@ -2967,7 +2977,9 @@
       <c r="E64" s="4">
         <v>63</v>
       </c>
-      <c r="F64" s="12"/>
+      <c r="F64" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="G64" s="16" t="s">
         <v>202</v>
       </c>
@@ -3385,7 +3397,9 @@
       <c r="E81" s="4">
         <v>80</v>
       </c>
-      <c r="F81" s="12"/>
+      <c r="F81" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="G81" s="16" t="s">
         <v>202</v>
       </c>
@@ -3731,7 +3745,9 @@
       <c r="E95" s="4">
         <v>94</v>
       </c>
-      <c r="F95" s="12"/>
+      <c r="F95" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="G95" s="16" t="s">
         <v>202</v>
       </c>
@@ -3765,7 +3781,9 @@
       <c r="E96" s="4">
         <v>95</v>
       </c>
-      <c r="F96" s="12"/>
+      <c r="F96" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="G96" s="16" t="s">
         <v>202</v>
       </c>

--- a/Data/Master.xlsx
+++ b/Data/Master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83412D2C-5877-46A6-A30C-E84C62C75AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D696D9E0-2897-4019-A565-17203B656052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="304">
   <si>
     <t>RUT</t>
   </si>
@@ -1360,8 +1360,8 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7265625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1717,9 +1717,7 @@
       <c r="E14" s="4">
         <v>13</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>180</v>
-      </c>
+      <c r="F14" s="12"/>
       <c r="G14" s="16" t="s">
         <v>197</v>
       </c>
@@ -1921,9 +1919,7 @@
       <c r="E22" s="4">
         <v>21</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>180</v>
-      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="16" t="s">
         <v>197</v>
       </c>
@@ -2197,9 +2193,7 @@
       <c r="E33" s="4">
         <v>32</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>180</v>
-      </c>
+      <c r="F33" s="12"/>
       <c r="G33" s="16" t="s">
         <v>202</v>
       </c>
@@ -2329,9 +2323,7 @@
       <c r="E38" s="4">
         <v>37</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>180</v>
-      </c>
+      <c r="F38" s="12"/>
       <c r="G38" s="16" t="s">
         <v>204</v>
       </c>
@@ -2629,9 +2621,7 @@
       <c r="E50" s="4">
         <v>49</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>180</v>
-      </c>
+      <c r="F50" s="12"/>
       <c r="G50" s="16" t="s">
         <v>197</v>
       </c>
@@ -2977,9 +2967,7 @@
       <c r="E64" s="4">
         <v>63</v>
       </c>
-      <c r="F64" s="12" t="s">
-        <v>180</v>
-      </c>
+      <c r="F64" s="12"/>
       <c r="G64" s="16" t="s">
         <v>202</v>
       </c>
@@ -3397,9 +3385,7 @@
       <c r="E81" s="4">
         <v>80</v>
       </c>
-      <c r="F81" s="12" t="s">
-        <v>180</v>
-      </c>
+      <c r="F81" s="12"/>
       <c r="G81" s="16" t="s">
         <v>202</v>
       </c>

--- a/Data/Master.xlsx
+++ b/Data/Master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr_Unidades_vendidas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83412D2C-5877-46A6-A30C-E84C62C75AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F2B16A-C6B8-4224-97E6-195EA8B04D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1360,8 +1360,8 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7265625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Data/Master.xlsx
+++ b/Data/Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D696D9E0-2897-4019-A565-17203B656052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AAA8BF-79D4-4846-A44D-6C5250EDEF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="304">
   <si>
     <t>RUT</t>
   </si>
@@ -1359,9 +1359,9 @@
   </sheetPr>
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F94"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7265625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3767,9 +3767,7 @@
       <c r="E96" s="4">
         <v>95</v>
       </c>
-      <c r="F96" s="12" t="s">
-        <v>180</v>
-      </c>
+      <c r="F96" s="12"/>
       <c r="G96" s="16" t="s">
         <v>202</v>
       </c>
@@ -3803,9 +3801,7 @@
       <c r="E97" s="4">
         <v>96</v>
       </c>
-      <c r="F97" s="12" t="s">
-        <v>180</v>
-      </c>
+      <c r="F97" s="12"/>
       <c r="G97" s="16" t="s">
         <v>202</v>
       </c>

--- a/Data/Master.xlsx
+++ b/Data/Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANKLIN\Downloads\Desarrollos\Tareas automaticas\tgr\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AAA8BF-79D4-4846-A44D-6C5250EDEF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91083857-2925-422F-B526-067536B3A1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Listado" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$K$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$K$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="250">
   <si>
     <t>RUT</t>
   </si>
@@ -635,326 +635,164 @@
     <t>CONCON</t>
   </si>
   <si>
-    <t>76182178-5</t>
-  </si>
-  <si>
-    <t>76182178-6</t>
+    <t>REGION METROPOLITANA DE SANTIAGO</t>
+  </si>
+  <si>
+    <t>LO BARNECHEA</t>
+  </si>
+  <si>
+    <t>REGION DE LOS LAGOS</t>
+  </si>
+  <si>
+    <t>PUERTO MONTT</t>
+  </si>
+  <si>
+    <t>NUNOA</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>13-76244139-k-Inmobiliaria Los Rosales</t>
+  </si>
+  <si>
+    <t>21-76244126-8-Inmobiliaria Los Mandarinos</t>
+  </si>
+  <si>
+    <t>49-76182178-4-Inversiones World Logistic</t>
+  </si>
+  <si>
+    <t>32-76336468-2-Inmobiliaria Los Laureles SPA</t>
+  </si>
+  <si>
+    <t>37-76569000-5-Inmobiliaria Los Coihues</t>
+  </si>
+  <si>
+    <t>63-76622777-5-Inmobiliaria Irarrazaval II SPA</t>
+  </si>
+  <si>
+    <t>80-76825241-6-Inmobiliaria La Verbena spa</t>
+  </si>
+  <si>
+    <t>78-76834873-1-Inmobiliaria Suarez Mujica Spa</t>
+  </si>
+  <si>
+    <t>79-76834869-3-Inmobiliaria Pedro de Oña Spa</t>
+  </si>
+  <si>
+    <t>77-76834883-9-Inmobiliaria Victoria Spa</t>
+  </si>
+  <si>
+    <t>76-76834885-5-Inmobiliaria Carmen Fariña Spa</t>
+  </si>
+  <si>
+    <t>33-99550720-k-Desarrollo Mipa</t>
+  </si>
+  <si>
+    <t>60-76604745-9-Inmobiliaria Eleodoro Yañez SPA</t>
+  </si>
+  <si>
+    <t>61-76688858-5-Inmobiliaria Rosas SPA</t>
+  </si>
+  <si>
+    <t>66-76754566-5-Inmobiliaria Monseñor Eyzaguirre II Spa</t>
+  </si>
+  <si>
+    <t>68-76780374-5-Inmobiliaria Macul SPA</t>
+  </si>
+  <si>
+    <t>26-76336482-8-Inmobiliaria El Algarrobo SPA</t>
+  </si>
+  <si>
+    <t>69-76780378-8-Inmobiliaria Azaleas SPA</t>
+  </si>
+  <si>
+    <t>67-76756684-0-Inmobiliaria Salvador SPA</t>
+  </si>
+  <si>
+    <t>74-76834892-8-Inmobiliaria Lord Cochrane Spa</t>
+  </si>
+  <si>
+    <t>70-76810391-7-Inmobiliaria San Diego SPA</t>
+  </si>
+  <si>
+    <t>81-76933826-8-Inmobiliaria Las Palmeras Spa</t>
+  </si>
+  <si>
+    <t>82-77005682-9-Inmobiliaria Walker Martinez</t>
+  </si>
+  <si>
+    <t>83-77005677-2-Inmobiliaria Isabel la Catolica</t>
+  </si>
+  <si>
+    <t>85-77067005-5-Inmobiliaria Celia Solar SpA</t>
+  </si>
+  <si>
+    <t>88-77078271-6-Inmobiliaria Rodrigo de Araya SPA</t>
+  </si>
+  <si>
+    <t>86-77078273-2-Inmobiliaria Aldunate SPA</t>
+  </si>
+  <si>
+    <t>91-77099336-9-Inmobiliaria Macul Exequiel Fernandez SPA</t>
+  </si>
+  <si>
+    <t>89-77099327-k-Inmobiliaria Millalongo SPA</t>
+  </si>
+  <si>
+    <t>75-76834887-1-Inmobiliaria Portugal Spa</t>
+  </si>
+  <si>
+    <t>72-76807795-9-Inmobiliaria Francia Ex Vicuña Mackenna</t>
+  </si>
+  <si>
+    <t>Inm. Walker Martinez</t>
+  </si>
+  <si>
+    <t>Inm. Isabel la Catolica</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA MACUL - EXEQUIEL FERNANDEZ SPA</t>
+  </si>
+  <si>
+    <t>Inmobiliaria Francia (ex Vicuña Mackenna)</t>
   </si>
   <si>
     <t>SAN BERNARDO</t>
   </si>
   <si>
-    <t>REGION METROPOLITANA DE SANTIAGO</t>
-  </si>
-  <si>
-    <t>LO BARNECHEA</t>
-  </si>
-  <si>
-    <t>REGION DE LOS LAGOS</t>
-  </si>
-  <si>
-    <t>PUERTO MONTT</t>
-  </si>
-  <si>
-    <t>NUNOA</t>
-  </si>
-  <si>
-    <t>Codigo</t>
-  </si>
-  <si>
-    <t>1-76692760-2-Inmobiliaria Del Mar</t>
-  </si>
-  <si>
-    <t>2-76933690-7-Inmobiliaria El Manzano</t>
-  </si>
-  <si>
-    <t>3-76014169-0-Inmobiliaria Las Camelias</t>
-  </si>
-  <si>
-    <t>4-76974560-2-Inmobiliaria Los Naranjos</t>
-  </si>
-  <si>
-    <t>5-76014171-2-Inmobiliaria Los Abetos</t>
-  </si>
-  <si>
-    <t>6-76178481-1-Inmobiliaria La Araucaria</t>
-  </si>
-  <si>
-    <t>7-76216581-3-Inmobiliaria Las Palmas</t>
-  </si>
-  <si>
-    <t>8-76216556-2-Inmobiliaria Los Quillayes</t>
-  </si>
-  <si>
-    <t>9-76216551-1-Inmobiliaria Los Abedules</t>
-  </si>
-  <si>
-    <t>10-76216566-k-Inmobiliaria El Canelo</t>
-  </si>
-  <si>
-    <t>11-76216547-3-Inmobiliaria El Avellano</t>
-  </si>
-  <si>
-    <t>12-76244152-7-Inmobiliaria Los Arrayanes</t>
-  </si>
-  <si>
-    <t>13-76244139-k-Inmobiliaria Los Rosales</t>
-  </si>
-  <si>
-    <t>14-76850270-6-Inmobiliaria Los Sauces</t>
-  </si>
-  <si>
-    <t>15-76178469-2-Inmobiliaria El Jacaranda</t>
-  </si>
-  <si>
-    <t>16-76933630-3-Inmobiliaria Los Almendros</t>
-  </si>
-  <si>
-    <t>17-76974590-4-Inmobiliaria Los Nogales</t>
-  </si>
-  <si>
-    <t>18-76974520-3-Inmobiliaria Los Mañios</t>
-  </si>
-  <si>
-    <t>19-76178466-8-inmobiliaria Los Magnolios</t>
-  </si>
-  <si>
-    <t>20-76244146-2-Inmobiliaria Las Lavandas</t>
-  </si>
-  <si>
-    <t>21-76244126-8-Inmobiliaria Los Mandarinos</t>
-  </si>
-  <si>
-    <t>22-76243749-k-Inmobiliaria Los Eucaliptus</t>
-  </si>
-  <si>
-    <t>23-76244113-6-Inmobiliaria El Peumo</t>
-  </si>
-  <si>
-    <t>24-76244172-1-Inmobiliaria Los Espinos</t>
-  </si>
-  <si>
-    <t>25-76244167-5-Inmobiliaria Los Pinos</t>
-  </si>
-  <si>
-    <t>26-76336482-8-Inmobiliaria El Algarrobo SPA</t>
-  </si>
-  <si>
-    <t>27-76336443-7-Inmobiliaria Los Maitenes SPA</t>
-  </si>
-  <si>
-    <t>28-76336489-5-Inmobiliaria Las Pataguas SPA</t>
-  </si>
-  <si>
-    <t>29-76336438-0-Inmobiliaria El Tamarugo SPA</t>
-  </si>
-  <si>
-    <t>30-76336446-1-Inmobiliaria El Sauco SPA</t>
-  </si>
-  <si>
-    <t>31-76336457-7-Inmobiliaria El Cipres SPA</t>
-  </si>
-  <si>
-    <t>32-76336468-2-Inmobiliaria Los Laureles SPA</t>
-  </si>
-  <si>
-    <t>33-99550720-k-Desarrollo Mipa</t>
-  </si>
-  <si>
-    <t>34-76178476-5-Inmobiliaria El Rauli</t>
-  </si>
-  <si>
-    <t>35-76014161-5-Inmobiliaria Los Olivos</t>
-  </si>
-  <si>
-    <t>36-76831640-6-inmobiliaria Los Robles</t>
-  </si>
-  <si>
-    <t>37-76569000-5-Inmobiliaria Los Coihues</t>
-  </si>
-  <si>
-    <t>38-76616460-9-Inmobiliaria Los Lingues</t>
-  </si>
-  <si>
-    <t>39-76512550-2-Inmobiliaria Argomedo</t>
-  </si>
-  <si>
-    <t>40-76569100-1-Inmobiliaria Puerto Brandt</t>
-  </si>
-  <si>
-    <t>41-76388200-4-Inmobiliaria Alerce</t>
-  </si>
-  <si>
-    <t>42-76405380-k-Inmobiliaria Brown Norte</t>
-  </si>
-  <si>
-    <t>43-76785210-k-Inmobiliaria Las Higueras</t>
-  </si>
-  <si>
-    <t>44-99564780-k-Inmobiliaria Recoleta</t>
-  </si>
-  <si>
-    <t>45-76512440-9-Inmobiliaria Roman Diaz</t>
-  </si>
-  <si>
-    <t>46-76378440-1-Inmobiliaria Santo Domingo</t>
-  </si>
-  <si>
-    <t>47-76495960-4-Inmobiliaria Monseñor Eyzaguirre</t>
-  </si>
-  <si>
-    <t>48-99549660-7-Inmobiliaria Duble Almeyda</t>
-  </si>
-  <si>
-    <t>49-76182178-4-Inversiones World Logistic</t>
-  </si>
-  <si>
-    <t>50-76272051-5-Imagina Arquitectos SPA</t>
-  </si>
-  <si>
-    <t>51-76378332-4-Imagina Gestion Inmobiliaria SPA</t>
-  </si>
-  <si>
-    <t>52-76455744-1-Inmobiliaria Tocornal II SPA</t>
-  </si>
-  <si>
-    <t>53-76457672-1-Inmobiliaria Capitan Orella SPA</t>
-  </si>
-  <si>
-    <t>54-76479661-6-Inmobiliaria Bustamante SPA</t>
-  </si>
-  <si>
-    <t>55-76545580-4-Inmobiliaria Hannover SPA</t>
-  </si>
-  <si>
-    <t>56-76545575-8-Inmobiliaria Sucre SPA</t>
-  </si>
-  <si>
-    <t>57-76528836-3-Inmobiliaria Simon Bolivar II SPA</t>
-  </si>
-  <si>
-    <t>58-76587748-2-Inmobiliaria Serrano SPA</t>
-  </si>
-  <si>
-    <t>59-76598693-1-Inmobiliaria Irarrazaval SPA</t>
-  </si>
-  <si>
-    <t>60-76604745-9-Inmobiliaria Eleodoro Yañez SPA</t>
-  </si>
-  <si>
-    <t>61-76688858-5-Inmobiliaria Rosas SPA</t>
-  </si>
-  <si>
-    <t>62-76683717-4-Inmobiliaria Diagonal Oriente SPA</t>
-  </si>
-  <si>
-    <t>63-76622777-5-Inmobiliaria Irarrazaval II SPA</t>
-  </si>
-  <si>
-    <t>64-76736769-4-Inmobiliaria Colon SPA</t>
-  </si>
-  <si>
-    <t>65-76736767-8-Inmobiliaria Eleuterio Ramirez SPA</t>
-  </si>
-  <si>
-    <t>66-76754566-5-Inmobiliaria Monseñor Eyzaguirre II Spa</t>
-  </si>
-  <si>
-    <t>67-76756684-0-Inmobiliaria Salvador SPA</t>
-  </si>
-  <si>
-    <t>68-76780374-5-Inmobiliaria Macul SPA</t>
-  </si>
-  <si>
-    <t>69-76780378-8-Inmobiliaria Azaleas SPA</t>
-  </si>
-  <si>
-    <t>70-76810391-7-Inmobiliaria San Diego SPA</t>
-  </si>
-  <si>
-    <t>71-76807788-6-Inmobiliaria San Eugenio SPA</t>
-  </si>
-  <si>
-    <t>72-76807795-9-Inmobiliaria Francia Ex Vicuña Mackenna</t>
-  </si>
-  <si>
-    <t>73-76810393-3-Inmobiliaria Tucapel Spa</t>
-  </si>
-  <si>
-    <t>74-76834892-8-Inmobiliaria Lord Cochrane Spa</t>
-  </si>
-  <si>
-    <t>75-76834887-1-Inmobiliaria Portugal Spa</t>
-  </si>
-  <si>
-    <t>76-76834885-5-Inmobiliaria Carmen Fariña Spa</t>
-  </si>
-  <si>
-    <t>77-76834883-9-Inmobiliaria Victoria Spa</t>
-  </si>
-  <si>
-    <t>78-76834873-1-Inmobiliaria Suarez Mujica Spa</t>
-  </si>
-  <si>
-    <t>79-76834869-3-Inmobiliaria Pedro de Oña Spa</t>
-  </si>
-  <si>
-    <t>80-76825241-6-Inmobiliaria La Verbena spa</t>
-  </si>
-  <si>
-    <t>81-76933826-8-Inmobiliaria Las Palmeras Spa</t>
-  </si>
-  <si>
-    <t>82-77005682-9-Inmobiliaria Walker Martinez</t>
-  </si>
-  <si>
-    <t>83-77005677-2-Inmobiliaria Isabel la Catolica</t>
-  </si>
-  <si>
-    <t>84-77017242-k-Licitaciones Gestión Inmobiliaria SPA</t>
-  </si>
-  <si>
-    <t>85-77067005-5-Inmobiliaria Celia Solar SpA</t>
-  </si>
-  <si>
-    <t>86-77078273-2-Inmobiliaria Aldunate SPA</t>
-  </si>
-  <si>
-    <t>87-77078277-5-Inmobiliaria Francisco de Villagra SPA</t>
-  </si>
-  <si>
-    <t>88-77078271-6-Inmobiliaria Rodrigo de Araya SPA</t>
-  </si>
-  <si>
-    <t>89-77099327-k-Inmobiliaria Millalongo SPA</t>
-  </si>
-  <si>
-    <t>90-77099333-4-Inmobiliaria Carlos Alvarado SPA</t>
-  </si>
-  <si>
-    <t>91-77099336-9-Inmobiliaria Macul Exequiel Fernandez SPA</t>
-  </si>
-  <si>
-    <t>92-77099338-5-Inmobiliaria Lago Todos Los Santos Spa</t>
-  </si>
-  <si>
-    <t>93-76936890-6-Constructora ALM S.A</t>
-  </si>
-  <si>
-    <t>94-76182178-4-Inversiones World Logistic</t>
-  </si>
-  <si>
-    <t>95-76182178-5-Inversiones World Logistic</t>
-  </si>
-  <si>
-    <t>96-76182178-6-Inversiones World Logistic</t>
+    <t>SANTIAGO (SUR)</t>
+  </si>
+  <si>
+    <t>VITACURA</t>
+  </si>
+  <si>
+    <t>PROVIDENCIA</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>MACUL</t>
+  </si>
+  <si>
+    <t>LAS CONDES</t>
+  </si>
+  <si>
+    <t>SAN JOAQUIN</t>
+  </si>
+  <si>
+    <t>LA FLORIDA</t>
+  </si>
+  <si>
+    <t>INDEPENDENCIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -985,15 +823,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1137,7 +966,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1357,11 +1188,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7265625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1374,7 +1205,6 @@
     <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1409,7 +1239,7 @@
         <v>196</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1423,8 +1253,9 @@
         <f>_xlfn.CONCAT("Credential_SII_",A2)</f>
         <v>Credential_SII_76692760-2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>208</v>
+      <c r="D2" s="4" t="str">
+        <f>_xlfn.CONCAT(E2,"-",A2,"-",B2)</f>
+        <v>1-76692760-2-Inmobiliaria Del Mar</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -1447,8 +1278,9 @@
         <f>_xlfn.CONCAT("Credential_SII_",A3)</f>
         <v>Credential_SII_76933690-7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>209</v>
+      <c r="D3" s="4" t="str">
+        <f t="shared" ref="D3:D66" si="0">_xlfn.CONCAT(E3,"-",A3,"-",B3)</f>
+        <v>2-76933690-7-Inmobiliaria El Manzano</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
@@ -1468,11 +1300,12 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="str">
-        <f t="shared" ref="C4:C67" si="0">_xlfn.CONCAT("Credential_SII_",A4)</f>
+        <f t="shared" ref="C4:C67" si="1">_xlfn.CONCAT("Credential_SII_",A4)</f>
         <v>Credential_SII_76014169-0</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>210</v>
+      <c r="D4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>3-76014169-0-Inmobiliaria Las Camelias</v>
       </c>
       <c r="E4" s="4">
         <v>3</v>
@@ -1492,11 +1325,12 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76974560-2</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>211</v>
+      <c r="D5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>4-76974560-2-Inmobiliaria Los Naranjos</v>
       </c>
       <c r="E5" s="4">
         <v>4</v>
@@ -1516,11 +1350,12 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76014171-2</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>212</v>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5-76014171-2-Inmobiliaria Los Abetos</v>
       </c>
       <c r="E6" s="4">
         <v>5</v>
@@ -1540,11 +1375,12 @@
         <v>7</v>
       </c>
       <c r="C7" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76178481-1</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>213</v>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>6-76178481-1-Inmobiliaria La Araucaria</v>
       </c>
       <c r="E7" s="4">
         <v>6</v>
@@ -1564,11 +1400,12 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76216581-3</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>214</v>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>7-76216581-3-Inmobiliaria Las Palmas</v>
       </c>
       <c r="E8" s="4">
         <v>7</v>
@@ -1588,11 +1425,12 @@
         <v>9</v>
       </c>
       <c r="C9" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76216556-2</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>215</v>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>8-76216556-2-Inmobiliaria Los Quillayes</v>
       </c>
       <c r="E9" s="4">
         <v>8</v>
@@ -1612,11 +1450,12 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76216551-1</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>216</v>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>9-76216551-1-Inmobiliaria Los Abedules</v>
       </c>
       <c r="E10" s="4">
         <v>9</v>
@@ -1636,11 +1475,12 @@
         <v>184</v>
       </c>
       <c r="C11" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76216566-k</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>217</v>
+      <c r="D11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>10-76216566-k-Inmobiliaria El Canelo</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
@@ -1660,11 +1500,12 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76216547-3</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>218</v>
+      <c r="D12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>11-76216547-3-Inmobiliaria El Avellano</v>
       </c>
       <c r="E12" s="4">
         <v>11</v>
@@ -1684,11 +1525,12 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76244152-7</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>219</v>
+      <c r="D13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>12-76244152-7-Inmobiliaria Los Arrayanes</v>
       </c>
       <c r="E13" s="4">
         <v>12</v>
@@ -1708,11 +1550,12 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76244139-k</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>220</v>
+      <c r="D14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>13-76244139-k-Inmobiliaria Los Rosales</v>
       </c>
       <c r="E14" s="4">
         <v>13</v>
@@ -1742,11 +1585,12 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76850270-6</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>221</v>
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>14-76850270-6-Inmobiliaria Los Sauces</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -1766,11 +1610,12 @@
         <v>15</v>
       </c>
       <c r="C16" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76178469-2</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>222</v>
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>15-76178469-2-Inmobiliaria El Jacaranda</v>
       </c>
       <c r="E16" s="4">
         <v>15</v>
@@ -1790,11 +1635,12 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76933630-3</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>223</v>
+      <c r="D17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>16-76933630-3-Inmobiliaria Los Almendros</v>
       </c>
       <c r="E17" s="4">
         <v>16</v>
@@ -1814,11 +1660,12 @@
         <v>17</v>
       </c>
       <c r="C18" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76974590-4</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>224</v>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>17-76974590-4-Inmobiliaria Los Nogales</v>
       </c>
       <c r="E18" s="4">
         <v>17</v>
@@ -1838,11 +1685,12 @@
         <v>18</v>
       </c>
       <c r="C19" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76974520-3</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>225</v>
+      <c r="D19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>18-76974520-3-Inmobiliaria Los Mañios</v>
       </c>
       <c r="E19" s="4">
         <v>18</v>
@@ -1862,11 +1710,12 @@
         <v>187</v>
       </c>
       <c r="C20" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76178466-8</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>226</v>
+      <c r="D20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>19-76178466-8-inmobiliaria Los Magnolios</v>
       </c>
       <c r="E20" s="4">
         <v>19</v>
@@ -1886,11 +1735,12 @@
         <v>19</v>
       </c>
       <c r="C21" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76244146-2</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>227</v>
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>20-76244146-2-Inmobiliaria Las Lavandas</v>
       </c>
       <c r="E21" s="4">
         <v>20</v>
@@ -1910,11 +1760,12 @@
         <v>20</v>
       </c>
       <c r="C22" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76244126-8</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>228</v>
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>21-76244126-8-Inmobiliaria Los Mandarinos</v>
       </c>
       <c r="E22" s="4">
         <v>21</v>
@@ -1944,11 +1795,12 @@
         <v>21</v>
       </c>
       <c r="C23" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76243749-k</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>229</v>
+      <c r="D23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>22-76243749-k-Inmobiliaria Los Eucaliptus</v>
       </c>
       <c r="E23" s="4">
         <v>22</v>
@@ -1968,11 +1820,12 @@
         <v>22</v>
       </c>
       <c r="C24" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76244113-6</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>230</v>
+      <c r="D24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>23-76244113-6-Inmobiliaria El Peumo</v>
       </c>
       <c r="E24" s="4">
         <v>23</v>
@@ -1992,11 +1845,12 @@
         <v>188</v>
       </c>
       <c r="C25" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76244172-1</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>231</v>
+      <c r="D25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>24-76244172-1-Inmobiliaria Los Espinos</v>
       </c>
       <c r="E25" s="4">
         <v>24</v>
@@ -2016,11 +1870,12 @@
         <v>23</v>
       </c>
       <c r="C26" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76244167-5</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>232</v>
+      <c r="D26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>25-76244167-5-Inmobiliaria Los Pinos</v>
       </c>
       <c r="E26" s="4">
         <v>25</v>
@@ -2040,11 +1895,12 @@
         <v>24</v>
       </c>
       <c r="C27" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76336482-8</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>233</v>
+      <c r="D27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>26-76336482-8-Inmobiliaria El Algarrobo SPA</v>
       </c>
       <c r="E27" s="4">
         <v>26</v>
@@ -2064,11 +1920,12 @@
         <v>25</v>
       </c>
       <c r="C28" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76336443-7</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>234</v>
+      <c r="D28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>27-76336443-7-Inmobiliaria Los Maitenes SPA</v>
       </c>
       <c r="E28" s="4">
         <v>27</v>
@@ -2088,11 +1945,12 @@
         <v>26</v>
       </c>
       <c r="C29" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76336489-5</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>235</v>
+      <c r="D29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>28-76336489-5-Inmobiliaria Las Pataguas SPA</v>
       </c>
       <c r="E29" s="4">
         <v>28</v>
@@ -2112,11 +1970,12 @@
         <v>27</v>
       </c>
       <c r="C30" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76336438-0</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>236</v>
+      <c r="D30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>29-76336438-0-Inmobiliaria El Tamarugo SPA</v>
       </c>
       <c r="E30" s="4">
         <v>29</v>
@@ -2136,11 +1995,12 @@
         <v>28</v>
       </c>
       <c r="C31" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76336446-1</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>237</v>
+      <c r="D31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>30-76336446-1-Inmobiliaria El Sauco SPA</v>
       </c>
       <c r="E31" s="4">
         <v>30</v>
@@ -2160,11 +2020,12 @@
         <v>29</v>
       </c>
       <c r="C32" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76336457-7</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>238</v>
+      <c r="D32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>31-76336457-7-Inmobiliaria El Cipres SPA</v>
       </c>
       <c r="E32" s="4">
         <v>31</v>
@@ -2184,21 +2045,22 @@
         <v>30</v>
       </c>
       <c r="C33" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76336468-2</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>239</v>
+      <c r="D33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>32-76336468-2-Inmobiliaria Los Laureles SPA</v>
       </c>
       <c r="E33" s="4">
         <v>32</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I33" s="16">
         <v>3585</v>
@@ -2218,11 +2080,12 @@
         <v>31</v>
       </c>
       <c r="C34" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_99550720-k</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>240</v>
+      <c r="D34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>33-99550720-k-Desarrollo Mipa</v>
       </c>
       <c r="E34" s="4">
         <v>33</v>
@@ -2242,11 +2105,12 @@
         <v>32</v>
       </c>
       <c r="C35" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76178476-5</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>241</v>
+      <c r="D35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>34-76178476-5-Inmobiliaria El Rauli</v>
       </c>
       <c r="E35" s="4">
         <v>34</v>
@@ -2266,11 +2130,12 @@
         <v>33</v>
       </c>
       <c r="C36" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76014161-5</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>242</v>
+      <c r="D36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>35-76014161-5-Inmobiliaria Los Olivos</v>
       </c>
       <c r="E36" s="4">
         <v>35</v>
@@ -2290,11 +2155,12 @@
         <v>34</v>
       </c>
       <c r="C37" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76831640-6</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>243</v>
+      <c r="D37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>36-76831640-6-inmobiliaria Los Robles</v>
       </c>
       <c r="E37" s="4">
         <v>36</v>
@@ -2314,21 +2180,22 @@
         <v>35</v>
       </c>
       <c r="C38" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76569000-5</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>244</v>
+      <c r="D38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>37-76569000-5-Inmobiliaria Los Coihues</v>
       </c>
       <c r="E38" s="4">
         <v>37</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I38" s="16">
         <v>715</v>
@@ -2348,11 +2215,12 @@
         <v>36</v>
       </c>
       <c r="C39" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76616460-9</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>245</v>
+      <c r="D39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>38-76616460-9-Inmobiliaria Los Lingues</v>
       </c>
       <c r="E39" s="4">
         <v>38</v>
@@ -2372,11 +2240,12 @@
         <v>37</v>
       </c>
       <c r="C40" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76512550-2</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>246</v>
+      <c r="D40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>39-76512550-2-Inmobiliaria Argomedo</v>
       </c>
       <c r="E40" s="4">
         <v>39</v>
@@ -2396,11 +2265,12 @@
         <v>38</v>
       </c>
       <c r="C41" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76569100-1</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>247</v>
+      <c r="D41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>40-76569100-1-Inmobiliaria Puerto Brandt</v>
       </c>
       <c r="E41" s="4">
         <v>40</v>
@@ -2420,11 +2290,12 @@
         <v>189</v>
       </c>
       <c r="C42" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76388200-4</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>248</v>
+      <c r="D42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>41-76388200-4-Inmobiliaria Alerce</v>
       </c>
       <c r="E42" s="4">
         <v>41</v>
@@ -2444,11 +2315,12 @@
         <v>39</v>
       </c>
       <c r="C43" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76405380-k</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>249</v>
+      <c r="D43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>42-76405380-k-Inmobiliaria Brown Norte</v>
       </c>
       <c r="E43" s="4">
         <v>42</v>
@@ -2468,11 +2340,12 @@
         <v>40</v>
       </c>
       <c r="C44" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76785210-k</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>250</v>
+      <c r="D44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>43-76785210-k-Inmobiliaria Las Higueras</v>
       </c>
       <c r="E44" s="4">
         <v>43</v>
@@ -2492,11 +2365,12 @@
         <v>41</v>
       </c>
       <c r="C45" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_99564780-k</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>251</v>
+      <c r="D45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>44-99564780-k-Inmobiliaria Recoleta</v>
       </c>
       <c r="E45" s="4">
         <v>44</v>
@@ -2516,11 +2390,12 @@
         <v>42</v>
       </c>
       <c r="C46" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76512440-9</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>252</v>
+      <c r="D46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>45-76512440-9-Inmobiliaria Roman Diaz</v>
       </c>
       <c r="E46" s="4">
         <v>45</v>
@@ -2540,11 +2415,12 @@
         <v>43</v>
       </c>
       <c r="C47" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76378440-1</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>253</v>
+      <c r="D47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>46-76378440-1-Inmobiliaria Santo Domingo</v>
       </c>
       <c r="E47" s="4">
         <v>46</v>
@@ -2564,11 +2440,12 @@
         <v>44</v>
       </c>
       <c r="C48" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76495960-4</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>254</v>
+      <c r="D48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>47-76495960-4-Inmobiliaria Monseñor Eyzaguirre</v>
       </c>
       <c r="E48" s="4">
         <v>47</v>
@@ -2588,11 +2465,12 @@
         <v>45</v>
       </c>
       <c r="C49" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_99549660-7</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>255</v>
+      <c r="D49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>48-99549660-7-Inmobiliaria Duble Almeyda</v>
       </c>
       <c r="E49" s="4">
         <v>48</v>
@@ -2612,11 +2490,12 @@
         <v>46</v>
       </c>
       <c r="C50" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76182178-4</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>256</v>
+      <c r="D50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>49-76182178-4-Inversiones World Logistic</v>
       </c>
       <c r="E50" s="4">
         <v>49</v>
@@ -2646,11 +2525,12 @@
         <v>47</v>
       </c>
       <c r="C51" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76272051-5</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>257</v>
+      <c r="D51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>50-76272051-5-Imagina Arquitectos SPA</v>
       </c>
       <c r="E51" s="4">
         <v>50</v>
@@ -2670,11 +2550,12 @@
         <v>48</v>
       </c>
       <c r="C52" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76378332-4</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>258</v>
+      <c r="D52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>51-76378332-4-Imagina Gestion Inmobiliaria SPA</v>
       </c>
       <c r="E52" s="4">
         <v>51</v>
@@ -2694,11 +2575,12 @@
         <v>49</v>
       </c>
       <c r="C53" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76455744-1</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>259</v>
+      <c r="D53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>52-76455744-1-Inmobiliaria Tocornal II SPA</v>
       </c>
       <c r="E53" s="4">
         <v>52</v>
@@ -2718,11 +2600,12 @@
         <v>50</v>
       </c>
       <c r="C54" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76457672-1</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>260</v>
+      <c r="D54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>53-76457672-1-Inmobiliaria Capitan Orella SPA</v>
       </c>
       <c r="E54" s="4">
         <v>53</v>
@@ -2742,11 +2625,12 @@
         <v>51</v>
       </c>
       <c r="C55" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76479661-6</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>261</v>
+      <c r="D55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>54-76479661-6-Inmobiliaria Bustamante SPA</v>
       </c>
       <c r="E55" s="4">
         <v>54</v>
@@ -2766,11 +2650,12 @@
         <v>52</v>
       </c>
       <c r="C56" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76545580-4</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>262</v>
+      <c r="D56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>55-76545580-4-Inmobiliaria Hannover SPA</v>
       </c>
       <c r="E56" s="4">
         <v>55</v>
@@ -2790,11 +2675,12 @@
         <v>53</v>
       </c>
       <c r="C57" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76545575-8</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>263</v>
+      <c r="D57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>56-76545575-8-Inmobiliaria Sucre SPA</v>
       </c>
       <c r="E57" s="4">
         <v>56</v>
@@ -2814,11 +2700,12 @@
         <v>54</v>
       </c>
       <c r="C58" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76528836-3</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>264</v>
+      <c r="D58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>57-76528836-3-Inmobiliaria Simon Bolivar II SPA</v>
       </c>
       <c r="E58" s="4">
         <v>57</v>
@@ -2838,11 +2725,12 @@
         <v>55</v>
       </c>
       <c r="C59" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76587748-2</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>265</v>
+      <c r="D59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>58-76587748-2-Inmobiliaria Serrano SPA</v>
       </c>
       <c r="E59" s="4">
         <v>58</v>
@@ -2862,11 +2750,12 @@
         <v>56</v>
       </c>
       <c r="C60" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76598693-1</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>266</v>
+      <c r="D60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>59-76598693-1-Inmobiliaria Irarrazaval SPA</v>
       </c>
       <c r="E60" s="4">
         <v>59</v>
@@ -2886,11 +2775,12 @@
         <v>57</v>
       </c>
       <c r="C61" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76604745-9</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>267</v>
+      <c r="D61" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>60-76604745-9-Inmobiliaria Eleodoro Yañez SPA</v>
       </c>
       <c r="E61" s="4">
         <v>60</v>
@@ -2910,11 +2800,12 @@
         <v>58</v>
       </c>
       <c r="C62" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76688858-5</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>268</v>
+      <c r="D62" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>61-76688858-5-Inmobiliaria Rosas SPA</v>
       </c>
       <c r="E62" s="4">
         <v>61</v>
@@ -2934,11 +2825,12 @@
         <v>59</v>
       </c>
       <c r="C63" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76683717-4</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>269</v>
+      <c r="D63" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>62-76683717-4-Inmobiliaria Diagonal Oriente SPA</v>
       </c>
       <c r="E63" s="4">
         <v>62</v>
@@ -2958,21 +2850,22 @@
         <v>60</v>
       </c>
       <c r="C64" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76622777-5</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>270</v>
+      <c r="D64" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>63-76622777-5-Inmobiliaria Irarrazaval II SPA</v>
       </c>
       <c r="E64" s="4">
         <v>63</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I64" s="16">
         <v>3091</v>
@@ -2992,11 +2885,12 @@
         <v>61</v>
       </c>
       <c r="C65" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76736769-4</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>271</v>
+      <c r="D65" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>64-76736769-4-Inmobiliaria Colon SPA</v>
       </c>
       <c r="E65" s="4">
         <v>64</v>
@@ -3016,11 +2910,12 @@
         <v>62</v>
       </c>
       <c r="C66" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76736767-8</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>272</v>
+      <c r="D66" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>65-76736767-8-Inmobiliaria Eleuterio Ramirez SPA</v>
       </c>
       <c r="E66" s="4">
         <v>65</v>
@@ -3040,11 +2935,12 @@
         <v>63</v>
       </c>
       <c r="C67" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Credential_SII_76754566-5</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>273</v>
+      <c r="D67" s="4" t="str">
+        <f t="shared" ref="D67:D94" si="2">_xlfn.CONCAT(E67,"-",A67,"-",B67)</f>
+        <v>66-76754566-5-Inmobiliaria Monseñor Eyzaguirre II Spa</v>
       </c>
       <c r="E67" s="4">
         <v>66</v>
@@ -3064,11 +2960,12 @@
         <v>64</v>
       </c>
       <c r="C68" s="5" t="str">
-        <f t="shared" ref="C68:C95" si="1">_xlfn.CONCAT("Credential_SII_",A68)</f>
+        <f t="shared" ref="C68:C94" si="3">_xlfn.CONCAT("Credential_SII_",A68)</f>
         <v>Credential_SII_76756684-0</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>274</v>
+      <c r="D68" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>67-76756684-0-Inmobiliaria Salvador SPA</v>
       </c>
       <c r="E68" s="4">
         <v>67</v>
@@ -3088,11 +2985,12 @@
         <v>65</v>
       </c>
       <c r="C69" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_76780374-5</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>275</v>
+      <c r="D69" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>68-76780374-5-Inmobiliaria Macul SPA</v>
       </c>
       <c r="E69" s="4">
         <v>68</v>
@@ -3112,11 +3010,12 @@
         <v>66</v>
       </c>
       <c r="C70" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_76780378-8</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>276</v>
+      <c r="D70" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>69-76780378-8-Inmobiliaria Azaleas SPA</v>
       </c>
       <c r="E70" s="4">
         <v>69</v>
@@ -3136,11 +3035,12 @@
         <v>67</v>
       </c>
       <c r="C71" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_76810391-7</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>277</v>
+      <c r="D71" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>70-76810391-7-Inmobiliaria San Diego SPA</v>
       </c>
       <c r="E71" s="4">
         <v>70</v>
@@ -3160,11 +3060,12 @@
         <v>68</v>
       </c>
       <c r="C72" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_76807788-6</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>278</v>
+      <c r="D72" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>71-76807788-6-Inmobiliaria San Eugenio SPA</v>
       </c>
       <c r="E72" s="4">
         <v>71</v>
@@ -3184,11 +3085,12 @@
         <v>190</v>
       </c>
       <c r="C73" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_76807795-9</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>279</v>
+      <c r="D73" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>72-76807795-9-Inmobiliaria Francia Ex Vicuña Mackenna</v>
       </c>
       <c r="E73" s="4">
         <v>72</v>
@@ -3208,11 +3110,12 @@
         <v>69</v>
       </c>
       <c r="C74" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_76810393-3</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>280</v>
+      <c r="D74" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>73-76810393-3-Inmobiliaria Tucapel Spa</v>
       </c>
       <c r="E74" s="4">
         <v>73</v>
@@ -3232,11 +3135,12 @@
         <v>70</v>
       </c>
       <c r="C75" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_76834892-8</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>281</v>
+      <c r="D75" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>74-76834892-8-Inmobiliaria Lord Cochrane Spa</v>
       </c>
       <c r="E75" s="4">
         <v>74</v>
@@ -3256,11 +3160,12 @@
         <v>71</v>
       </c>
       <c r="C76" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_76834887-1</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>282</v>
+      <c r="D76" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>75-76834887-1-Inmobiliaria Portugal Spa</v>
       </c>
       <c r="E76" s="4">
         <v>75</v>
@@ -3280,11 +3185,12 @@
         <v>72</v>
       </c>
       <c r="C77" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_76834885-5</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>283</v>
+      <c r="D77" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>76-76834885-5-Inmobiliaria Carmen Fariña Spa</v>
       </c>
       <c r="E77" s="4">
         <v>76</v>
@@ -3304,11 +3210,12 @@
         <v>73</v>
       </c>
       <c r="C78" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_76834883-9</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>284</v>
+      <c r="D78" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>77-76834883-9-Inmobiliaria Victoria Spa</v>
       </c>
       <c r="E78" s="4">
         <v>77</v>
@@ -3328,11 +3235,12 @@
         <v>74</v>
       </c>
       <c r="C79" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_76834873-1</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>285</v>
+      <c r="D79" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>78-76834873-1-Inmobiliaria Suarez Mujica Spa</v>
       </c>
       <c r="E79" s="4">
         <v>78</v>
@@ -3352,11 +3260,12 @@
         <v>75</v>
       </c>
       <c r="C80" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_76834869-3</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>286</v>
+      <c r="D80" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>79-76834869-3-Inmobiliaria Pedro de Oña Spa</v>
       </c>
       <c r="E80" s="4">
         <v>79</v>
@@ -3376,21 +3285,22 @@
         <v>76</v>
       </c>
       <c r="C81" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_76825241-6</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>287</v>
+      <c r="D81" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>80-76825241-6-Inmobiliaria La Verbena spa</v>
       </c>
       <c r="E81" s="4">
         <v>80</v>
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I81" s="16">
         <v>2471</v>
@@ -3410,11 +3320,12 @@
         <v>77</v>
       </c>
       <c r="C82" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_76933826-8</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>288</v>
+      <c r="D82" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>81-76933826-8-Inmobiliaria Las Palmeras Spa</v>
       </c>
       <c r="E82" s="4">
         <v>81</v>
@@ -3434,11 +3345,12 @@
         <v>186</v>
       </c>
       <c r="C83" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_77005682-9</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>289</v>
+      <c r="D83" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>82-77005682-9-Inmobiliaria Walker Martinez</v>
       </c>
       <c r="E83" s="4">
         <v>82</v>
@@ -3458,11 +3370,12 @@
         <v>185</v>
       </c>
       <c r="C84" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_77005677-2</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>290</v>
+      <c r="D84" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>83-77005677-2-Inmobiliaria Isabel la Catolica</v>
       </c>
       <c r="E84" s="4">
         <v>83</v>
@@ -3482,11 +3395,12 @@
         <v>179</v>
       </c>
       <c r="C85" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_77017242-k</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>291</v>
+      <c r="D85" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>84-77017242-k-Licitaciones Gestión Inmobiliaria SPA</v>
       </c>
       <c r="E85" s="4">
         <v>84</v>
@@ -3506,11 +3420,12 @@
         <v>78</v>
       </c>
       <c r="C86" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_77067005-5</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>292</v>
+      <c r="D86" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>85-77067005-5-Inmobiliaria Celia Solar SpA</v>
       </c>
       <c r="E86" s="4">
         <v>85</v>
@@ -3530,11 +3445,12 @@
         <v>79</v>
       </c>
       <c r="C87" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_77078273-2</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>293</v>
+      <c r="D87" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>86-77078273-2-Inmobiliaria Aldunate SPA</v>
       </c>
       <c r="E87" s="4">
         <v>86</v>
@@ -3554,11 +3470,12 @@
         <v>80</v>
       </c>
       <c r="C88" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_77078277-5</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>294</v>
+      <c r="D88" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>87-77078277-5-Inmobiliaria Francisco de Villagra SPA</v>
       </c>
       <c r="E88" s="4">
         <v>87</v>
@@ -3578,11 +3495,12 @@
         <v>81</v>
       </c>
       <c r="C89" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_77078271-6</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>295</v>
+      <c r="D89" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>88-77078271-6-Inmobiliaria Rodrigo de Araya SPA</v>
       </c>
       <c r="E89" s="4">
         <v>88</v>
@@ -3602,11 +3520,12 @@
         <v>82</v>
       </c>
       <c r="C90" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_77099327-k</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>296</v>
+      <c r="D90" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>89-77099327-k-Inmobiliaria Millalongo SPA</v>
       </c>
       <c r="E90" s="4">
         <v>89</v>
@@ -3626,17 +3545,18 @@
         <v>83</v>
       </c>
       <c r="C91" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_77099333-4</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>297</v>
+      <c r="D91" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>90-77099333-4-Inmobiliaria Carlos Alvarado SPA</v>
       </c>
       <c r="E91" s="4">
         <v>90</v>
       </c>
       <c r="F91" s="12"/>
-      <c r="G91" s="17"/>
+      <c r="G91" s="16"/>
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
       <c r="J91" s="16"/>
@@ -3650,11 +3570,12 @@
         <v>183</v>
       </c>
       <c r="C92" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_77099336-9</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>298</v>
+      <c r="D92" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>91-77099336-9-Inmobiliaria Macul Exequiel Fernandez SPA</v>
       </c>
       <c r="E92" s="4">
         <v>91</v>
@@ -3674,11 +3595,12 @@
         <v>84</v>
       </c>
       <c r="C93" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_77099338-5</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>299</v>
+      <c r="D93" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>92-77099338-5-Inmobiliaria Lago Todos Los Santos Spa</v>
       </c>
       <c r="E93" s="4">
         <v>92</v>
@@ -3691,18 +3613,19 @@
       <c r="K93" s="16"/>
     </row>
     <row r="94" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="17" t="s">
         <v>177</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C94" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>Credential_SII_76936890-6</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>300</v>
+      <c r="D94" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>93-76936890-6-Constructora ALM S.A</v>
       </c>
       <c r="E94" s="4">
         <v>93</v>
@@ -3714,112 +3637,1157 @@
       <c r="J94" s="16"/>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>205</v>
+      </c>
+      <c r="E95" s="11">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>180</v>
+      </c>
+      <c r="G95" t="s">
+        <v>197</v>
+      </c>
+      <c r="H95" t="s">
+        <v>198</v>
+      </c>
+      <c r="I95">
+        <v>6037</v>
+      </c>
+      <c r="J95">
+        <v>5</v>
+      </c>
+      <c r="K95">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="D96" t="s">
+        <v>206</v>
+      </c>
+      <c r="E96" s="11">
+        <v>21</v>
+      </c>
+      <c r="F96" t="s">
+        <v>180</v>
+      </c>
+      <c r="G96" t="s">
+        <v>197</v>
+      </c>
+      <c r="H96" t="s">
+        <v>198</v>
+      </c>
+      <c r="I96">
+        <v>6042</v>
+      </c>
+      <c r="J96">
+        <v>13</v>
+      </c>
+      <c r="K96">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>133</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>207</v>
+      </c>
+      <c r="E97" s="11">
+        <v>49</v>
+      </c>
+      <c r="F97" t="s">
+        <v>180</v>
+      </c>
+      <c r="G97" t="s">
+        <v>199</v>
+      </c>
+      <c r="H97" t="s">
+        <v>240</v>
+      </c>
+      <c r="I97">
+        <v>4505</v>
+      </c>
+      <c r="J97">
+        <v>271</v>
+      </c>
+      <c r="K97">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" t="s">
         <v>46</v>
       </c>
-      <c r="C95" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Credential_SII_76182178-4</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E95" s="4">
-        <v>94</v>
-      </c>
-      <c r="F95" s="12" t="s">
+      <c r="D98" t="s">
+        <v>207</v>
+      </c>
+      <c r="E98" s="11">
+        <v>49</v>
+      </c>
+      <c r="F98" t="s">
         <v>180</v>
       </c>
-      <c r="G95" s="16" t="s">
+      <c r="G98" t="s">
+        <v>199</v>
+      </c>
+      <c r="H98" t="s">
+        <v>240</v>
+      </c>
+      <c r="I98">
+        <v>4505</v>
+      </c>
+      <c r="J98">
+        <v>54</v>
+      </c>
+      <c r="K98">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" t="s">
+        <v>207</v>
+      </c>
+      <c r="E99" s="11">
+        <v>49</v>
+      </c>
+      <c r="F99" t="s">
+        <v>180</v>
+      </c>
+      <c r="G99" t="s">
+        <v>199</v>
+      </c>
+      <c r="H99" t="s">
+        <v>240</v>
+      </c>
+      <c r="I99">
+        <v>4505</v>
+      </c>
+      <c r="J99">
+        <v>272</v>
+      </c>
+      <c r="K99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" t="s">
+        <v>46</v>
+      </c>
+      <c r="D100" t="s">
+        <v>207</v>
+      </c>
+      <c r="E100" s="11">
+        <v>49</v>
+      </c>
+      <c r="F100" t="s">
+        <v>180</v>
+      </c>
+      <c r="G100" t="s">
+        <v>199</v>
+      </c>
+      <c r="H100" t="s">
+        <v>240</v>
+      </c>
+      <c r="I100">
+        <v>4505</v>
+      </c>
+      <c r="J100">
+        <v>273</v>
+      </c>
+      <c r="K100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" t="s">
+        <v>208</v>
+      </c>
+      <c r="E101" s="11">
+        <v>32</v>
+      </c>
+      <c r="F101" t="s">
+        <v>180</v>
+      </c>
+      <c r="G101" t="s">
+        <v>199</v>
+      </c>
+      <c r="H101" t="s">
+        <v>200</v>
+      </c>
+      <c r="I101">
+        <v>3585</v>
+      </c>
+      <c r="J101">
+        <v>3</v>
+      </c>
+      <c r="K101">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" t="s">
+        <v>35</v>
+      </c>
+      <c r="D102" t="s">
+        <v>209</v>
+      </c>
+      <c r="E102" s="11">
+        <v>37</v>
+      </c>
+      <c r="F102" t="s">
+        <v>180</v>
+      </c>
+      <c r="G102" t="s">
+        <v>201</v>
+      </c>
+      <c r="H102" t="s">
         <v>202</v>
       </c>
-      <c r="H95" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="I95" s="16">
-        <v>4505</v>
-      </c>
-      <c r="J95" s="16">
-        <v>54</v>
-      </c>
-      <c r="K95" s="16">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
+      <c r="I102">
+        <v>715</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
+      <c r="K102">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103" t="s">
+        <v>210</v>
+      </c>
+      <c r="E103" s="11">
+        <v>63</v>
+      </c>
+      <c r="F103" t="s">
+        <v>180</v>
+      </c>
+      <c r="G103" t="s">
         <v>199</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C96" s="5" t="str">
-        <f t="shared" ref="C96:C97" si="2">_xlfn.CONCAT("Credential_SII_",A96)</f>
-        <v>Credential_SII_76182178-5</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E96" s="4">
-        <v>95</v>
-      </c>
-      <c r="F96" s="12"/>
-      <c r="G96" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="H96" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="I96" s="16">
-        <v>4505</v>
-      </c>
-      <c r="J96" s="16">
-        <v>272</v>
-      </c>
-      <c r="K96" s="16">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C97" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Credential_SII_76182178-6</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E97" s="4">
-        <v>96</v>
-      </c>
-      <c r="F97" s="12"/>
-      <c r="G97" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="H97" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="I97" s="16">
-        <v>4505</v>
-      </c>
-      <c r="J97" s="16">
-        <v>273</v>
-      </c>
-      <c r="K97" s="16">
-        <v>98</v>
+      <c r="H103" t="s">
+        <v>203</v>
+      </c>
+      <c r="I103">
+        <v>3091</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" t="s">
+        <v>76</v>
+      </c>
+      <c r="D104" t="s">
+        <v>211</v>
+      </c>
+      <c r="E104" s="11">
+        <v>80</v>
+      </c>
+      <c r="F104" t="s">
+        <v>180</v>
+      </c>
+      <c r="G104" t="s">
+        <v>199</v>
+      </c>
+      <c r="H104" t="s">
+        <v>203</v>
+      </c>
+      <c r="I104">
+        <v>2471</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" t="s">
+        <v>74</v>
+      </c>
+      <c r="D105" t="s">
+        <v>212</v>
+      </c>
+      <c r="E105" s="11">
+        <v>78</v>
+      </c>
+      <c r="F105" t="s">
+        <v>180</v>
+      </c>
+      <c r="G105" t="s">
+        <v>199</v>
+      </c>
+      <c r="H105" t="s">
+        <v>203</v>
+      </c>
+      <c r="I105">
+        <v>5801</v>
+      </c>
+      <c r="J105">
+        <v>3</v>
+      </c>
+      <c r="K105">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D106" t="s">
+        <v>213</v>
+      </c>
+      <c r="E106" s="11">
+        <v>79</v>
+      </c>
+      <c r="F106" t="s">
+        <v>180</v>
+      </c>
+      <c r="G106" t="s">
+        <v>199</v>
+      </c>
+      <c r="H106" t="s">
+        <v>203</v>
+      </c>
+      <c r="I106">
+        <v>2767</v>
+      </c>
+      <c r="J106">
+        <v>44</v>
+      </c>
+      <c r="K106">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" t="s">
+        <v>73</v>
+      </c>
+      <c r="D107" t="s">
+        <v>214</v>
+      </c>
+      <c r="E107" s="11">
+        <v>77</v>
+      </c>
+      <c r="F107" t="s">
+        <v>180</v>
+      </c>
+      <c r="G107" t="s">
+        <v>199</v>
+      </c>
+      <c r="H107" t="s">
+        <v>241</v>
+      </c>
+      <c r="I107">
+        <v>3038</v>
+      </c>
+      <c r="J107">
+        <v>29</v>
+      </c>
+      <c r="K107">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>160</v>
+      </c>
+      <c r="B108" t="s">
+        <v>72</v>
+      </c>
+      <c r="D108" t="s">
+        <v>215</v>
+      </c>
+      <c r="E108" s="11">
+        <v>76</v>
+      </c>
+      <c r="F108" t="s">
+        <v>180</v>
+      </c>
+      <c r="G108" t="s">
+        <v>199</v>
+      </c>
+      <c r="H108" t="s">
+        <v>242</v>
+      </c>
+      <c r="I108">
+        <v>1419</v>
+      </c>
+      <c r="J108">
+        <v>45</v>
+      </c>
+      <c r="K108">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>117</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="D109" t="s">
+        <v>216</v>
+      </c>
+      <c r="E109" s="11">
+        <v>33</v>
+      </c>
+      <c r="F109" t="s">
+        <v>180</v>
+      </c>
+      <c r="G109" t="s">
+        <v>199</v>
+      </c>
+      <c r="H109" t="s">
+        <v>203</v>
+      </c>
+      <c r="I109">
+        <v>34</v>
+      </c>
+      <c r="J109">
+        <v>344</v>
+      </c>
+      <c r="K109">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" t="s">
+        <v>216</v>
+      </c>
+      <c r="E110" s="11">
+        <v>33</v>
+      </c>
+      <c r="F110" t="s">
+        <v>180</v>
+      </c>
+      <c r="G110" t="s">
+        <v>199</v>
+      </c>
+      <c r="H110" t="s">
+        <v>203</v>
+      </c>
+      <c r="I110">
+        <v>34</v>
+      </c>
+      <c r="J110">
+        <v>347</v>
+      </c>
+      <c r="K110">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111" t="s">
+        <v>216</v>
+      </c>
+      <c r="E111" s="11">
+        <v>33</v>
+      </c>
+      <c r="F111" t="s">
+        <v>180</v>
+      </c>
+      <c r="G111" t="s">
+        <v>199</v>
+      </c>
+      <c r="H111" t="s">
+        <v>203</v>
+      </c>
+      <c r="I111">
+        <v>34</v>
+      </c>
+      <c r="J111">
+        <v>353</v>
+      </c>
+      <c r="K111">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>144</v>
+      </c>
+      <c r="B112" t="s">
+        <v>57</v>
+      </c>
+      <c r="D112" t="s">
+        <v>217</v>
+      </c>
+      <c r="E112" s="11">
+        <v>60</v>
+      </c>
+      <c r="F112" t="s">
+        <v>180</v>
+      </c>
+      <c r="G112" t="s">
+        <v>199</v>
+      </c>
+      <c r="H112" t="s">
+        <v>243</v>
+      </c>
+      <c r="I112">
+        <v>1823</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>145</v>
+      </c>
+      <c r="B113" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113" t="s">
+        <v>218</v>
+      </c>
+      <c r="E113" s="11">
+        <v>61</v>
+      </c>
+      <c r="F113" t="s">
+        <v>180</v>
+      </c>
+      <c r="G113" t="s">
+        <v>199</v>
+      </c>
+      <c r="H113" t="s">
+        <v>244</v>
+      </c>
+      <c r="I113">
+        <v>212</v>
+      </c>
+      <c r="J113">
+        <v>12</v>
+      </c>
+      <c r="K113">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>150</v>
+      </c>
+      <c r="B114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>219</v>
+      </c>
+      <c r="E114" s="11">
+        <v>66</v>
+      </c>
+      <c r="F114" t="s">
+        <v>180</v>
+      </c>
+      <c r="G114" t="s">
+        <v>199</v>
+      </c>
+      <c r="H114" t="s">
+        <v>203</v>
+      </c>
+      <c r="I114">
+        <v>3916</v>
+      </c>
+      <c r="J114">
+        <v>5</v>
+      </c>
+      <c r="K114">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>152</v>
+      </c>
+      <c r="B115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D115" t="s">
+        <v>220</v>
+      </c>
+      <c r="E115" s="11">
+        <v>68</v>
+      </c>
+      <c r="F115" t="s">
+        <v>180</v>
+      </c>
+      <c r="G115" t="s">
+        <v>199</v>
+      </c>
+      <c r="H115" t="s">
+        <v>245</v>
+      </c>
+      <c r="I115">
+        <v>7939</v>
+      </c>
+      <c r="J115">
+        <v>33</v>
+      </c>
+      <c r="K115">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>110</v>
+      </c>
+      <c r="B116" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" t="s">
+        <v>221</v>
+      </c>
+      <c r="E116" s="11">
+        <v>26</v>
+      </c>
+      <c r="F116" t="s">
+        <v>180</v>
+      </c>
+      <c r="G116" t="s">
+        <v>199</v>
+      </c>
+      <c r="H116" t="s">
+        <v>203</v>
+      </c>
+      <c r="I116">
+        <v>5432</v>
+      </c>
+      <c r="J116">
+        <v>20</v>
+      </c>
+      <c r="K116">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" t="s">
+        <v>66</v>
+      </c>
+      <c r="D117" t="s">
+        <v>222</v>
+      </c>
+      <c r="E117" s="11">
+        <v>69</v>
+      </c>
+      <c r="F117" t="s">
+        <v>180</v>
+      </c>
+      <c r="G117" t="s">
+        <v>199</v>
+      </c>
+      <c r="H117" t="s">
+        <v>246</v>
+      </c>
+      <c r="I117">
+        <v>2011</v>
+      </c>
+      <c r="J117">
+        <v>9</v>
+      </c>
+      <c r="K117">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>151</v>
+      </c>
+      <c r="B118" t="s">
+        <v>64</v>
+      </c>
+      <c r="D118" t="s">
+        <v>223</v>
+      </c>
+      <c r="E118" s="11">
+        <v>67</v>
+      </c>
+      <c r="F118" t="s">
+        <v>180</v>
+      </c>
+      <c r="G118" t="s">
+        <v>199</v>
+      </c>
+      <c r="H118" t="s">
+        <v>247</v>
+      </c>
+      <c r="I118">
+        <v>1701</v>
+      </c>
+      <c r="J118">
+        <v>124</v>
+      </c>
+      <c r="K118">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" t="s">
+        <v>70</v>
+      </c>
+      <c r="D119" t="s">
+        <v>224</v>
+      </c>
+      <c r="E119" s="11">
+        <v>74</v>
+      </c>
+      <c r="F119" t="s">
+        <v>180</v>
+      </c>
+      <c r="G119" t="s">
+        <v>199</v>
+      </c>
+      <c r="H119" t="s">
+        <v>244</v>
+      </c>
+      <c r="I119">
+        <v>542</v>
+      </c>
+      <c r="J119">
+        <v>4</v>
+      </c>
+      <c r="K119">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" t="s">
+        <v>67</v>
+      </c>
+      <c r="D120" t="s">
+        <v>225</v>
+      </c>
+      <c r="E120" s="11">
+        <v>70</v>
+      </c>
+      <c r="F120" t="s">
+        <v>180</v>
+      </c>
+      <c r="G120" t="s">
+        <v>199</v>
+      </c>
+      <c r="H120" t="s">
+        <v>244</v>
+      </c>
+      <c r="I120">
+        <v>531</v>
+      </c>
+      <c r="J120">
+        <v>19</v>
+      </c>
+      <c r="K120">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>165</v>
+      </c>
+      <c r="B121" t="s">
+        <v>77</v>
+      </c>
+      <c r="D121" t="s">
+        <v>226</v>
+      </c>
+      <c r="E121" s="11">
+        <v>81</v>
+      </c>
+      <c r="F121" t="s">
+        <v>180</v>
+      </c>
+      <c r="G121" t="s">
+        <v>199</v>
+      </c>
+      <c r="H121" t="s">
+        <v>203</v>
+      </c>
+      <c r="I121">
+        <v>6135</v>
+      </c>
+      <c r="J121">
+        <v>7</v>
+      </c>
+      <c r="K121">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>166</v>
+      </c>
+      <c r="B122" t="s">
+        <v>236</v>
+      </c>
+      <c r="D122" t="s">
+        <v>227</v>
+      </c>
+      <c r="E122" s="11">
+        <v>82</v>
+      </c>
+      <c r="F122" t="s">
+        <v>180</v>
+      </c>
+      <c r="G122" t="s">
+        <v>199</v>
+      </c>
+      <c r="H122" t="s">
+        <v>248</v>
+      </c>
+      <c r="I122">
+        <v>1832</v>
+      </c>
+      <c r="J122">
+        <v>35</v>
+      </c>
+      <c r="K122">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>167</v>
+      </c>
+      <c r="B123" t="s">
+        <v>237</v>
+      </c>
+      <c r="D123" t="s">
+        <v>228</v>
+      </c>
+      <c r="E123" s="11">
+        <v>83</v>
+      </c>
+      <c r="F123" t="s">
+        <v>180</v>
+      </c>
+      <c r="G123" t="s">
+        <v>199</v>
+      </c>
+      <c r="H123" t="s">
+        <v>246</v>
+      </c>
+      <c r="I123">
+        <v>798</v>
+      </c>
+      <c r="J123">
+        <v>9</v>
+      </c>
+      <c r="K123">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" t="s">
+        <v>78</v>
+      </c>
+      <c r="D124" t="s">
+        <v>229</v>
+      </c>
+      <c r="E124" s="11">
+        <v>85</v>
+      </c>
+      <c r="F124" t="s">
+        <v>180</v>
+      </c>
+      <c r="G124" t="s">
+        <v>199</v>
+      </c>
+      <c r="H124" t="s">
+        <v>247</v>
+      </c>
+      <c r="I124">
+        <v>101</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>172</v>
+      </c>
+      <c r="B125" t="s">
+        <v>81</v>
+      </c>
+      <c r="D125" t="s">
+        <v>230</v>
+      </c>
+      <c r="E125" s="11">
+        <v>88</v>
+      </c>
+      <c r="F125" t="s">
+        <v>180</v>
+      </c>
+      <c r="G125" t="s">
+        <v>199</v>
+      </c>
+      <c r="H125" t="s">
+        <v>203</v>
+      </c>
+      <c r="I125">
+        <v>6618</v>
+      </c>
+      <c r="J125">
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>170</v>
+      </c>
+      <c r="B126" t="s">
+        <v>79</v>
+      </c>
+      <c r="D126" t="s">
+        <v>231</v>
+      </c>
+      <c r="E126" s="11">
+        <v>86</v>
+      </c>
+      <c r="F126" t="s">
+        <v>180</v>
+      </c>
+      <c r="G126" t="s">
+        <v>199</v>
+      </c>
+      <c r="H126" t="s">
+        <v>244</v>
+      </c>
+      <c r="I126">
+        <v>712</v>
+      </c>
+      <c r="J126">
+        <v>8</v>
+      </c>
+      <c r="K126">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>175</v>
+      </c>
+      <c r="B127" t="s">
+        <v>238</v>
+      </c>
+      <c r="D127" t="s">
+        <v>232</v>
+      </c>
+      <c r="E127" s="11">
+        <v>91</v>
+      </c>
+      <c r="F127" t="s">
+        <v>180</v>
+      </c>
+      <c r="G127" t="s">
+        <v>199</v>
+      </c>
+      <c r="H127" t="s">
+        <v>245</v>
+      </c>
+      <c r="I127">
+        <v>7835</v>
+      </c>
+      <c r="J127">
+        <v>20</v>
+      </c>
+      <c r="K127">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>173</v>
+      </c>
+      <c r="B128" t="s">
+        <v>82</v>
+      </c>
+      <c r="D128" t="s">
+        <v>233</v>
+      </c>
+      <c r="E128" s="11">
+        <v>89</v>
+      </c>
+      <c r="F128" t="s">
+        <v>180</v>
+      </c>
+      <c r="G128" t="s">
+        <v>199</v>
+      </c>
+      <c r="H128" t="s">
+        <v>248</v>
+      </c>
+      <c r="I128">
+        <v>131</v>
+      </c>
+      <c r="J128">
+        <v>3</v>
+      </c>
+      <c r="K128">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>159</v>
+      </c>
+      <c r="B129" t="s">
+        <v>71</v>
+      </c>
+      <c r="D129" t="s">
+        <v>234</v>
+      </c>
+      <c r="E129" s="11">
+        <v>75</v>
+      </c>
+      <c r="F129" t="s">
+        <v>180</v>
+      </c>
+      <c r="G129" t="s">
+        <v>199</v>
+      </c>
+      <c r="H129" t="s">
+        <v>244</v>
+      </c>
+      <c r="I129">
+        <v>453</v>
+      </c>
+      <c r="J129">
+        <v>23</v>
+      </c>
+      <c r="K129">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130" t="s">
+        <v>239</v>
+      </c>
+      <c r="D130" t="s">
+        <v>235</v>
+      </c>
+      <c r="E130" s="11">
+        <v>72</v>
+      </c>
+      <c r="F130" t="s">
+        <v>180</v>
+      </c>
+      <c r="G130" t="s">
+        <v>199</v>
+      </c>
+      <c r="H130" t="s">
+        <v>249</v>
+      </c>
+      <c r="I130">
+        <v>2448</v>
+      </c>
+      <c r="J130">
+        <v>29</v>
+      </c>
+      <c r="K130">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K97" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K94" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
